--- a/6ea62e8d25dba044.xlsx
+++ b/6ea62e8d25dba044.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shura\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PY_Projects\data_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7D1E41-ECA9-4BDC-B268-6EDA374CAF3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>After 8</t>
   </si>
@@ -288,7 +287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,137 +697,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V86" sqref="V86:W86"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:R64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="43.21875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="8"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
       <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="V2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -840,20 +839,20 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="V3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -865,16 +864,16 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="V4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -890,22 +889,22 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="V5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -917,20 +916,20 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="V6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -944,19 +943,19 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="V7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -971,17 +970,17 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="V8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -996,24 +995,24 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="V9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -1022,22 +1021,22 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="8" t="s">
+      <c r="R10" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="V10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1052,16 +1051,16 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="V11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1074,23 +1073,23 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="P12" s="8"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="R12" s="6"/>
+      <c r="V12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1104,20 +1103,20 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="V13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1131,16 +1130,16 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="V14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1156,79 +1155,79 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="V15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="M16" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="N16" s="6"/>
-      <c r="O16" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="V16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="V17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1243,16 +1242,16 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="V18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1268,19 +1267,19 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="V19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1295,19 +1294,19 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-    </row>
-    <row r="21" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="V20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1322,22 +1321,22 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-    </row>
-    <row r="22" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="V21" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1349,22 +1348,22 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="V22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1378,55 +1377,55 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="V23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="L24" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="8" t="s">
+      <c r="R24" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="V24" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -1438,48 +1437,48 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-    </row>
-    <row r="26" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="V25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="M26" s="6"/>
-      <c r="N26" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="8" t="s">
+      <c r="R26" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="V26" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -1494,19 +1493,19 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-    </row>
-    <row r="28" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="V27" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1521,17 +1520,17 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-    </row>
-    <row r="29" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="V28" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -1546,22 +1545,22 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="V29" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1575,24 +1574,24 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="V30" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -1604,20 +1603,20 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-    </row>
-    <row r="32" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="V31" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
         <v>54</v>
       </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1628,53 +1627,53 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="P32" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="Q32" s="6"/>
-      <c r="R32" s="8" t="s">
+      <c r="R32" s="6"/>
+      <c r="V32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    </row>
+    <row r="33" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="M33" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="N33" s="6"/>
-      <c r="O33" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-    </row>
-    <row r="34" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="V33" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -1689,24 +1688,24 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-    </row>
-    <row r="35" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="V34" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="H35" s="6"/>
-      <c r="I35" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
@@ -1716,19 +1715,19 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="V35" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -1743,26 +1742,26 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-    </row>
-    <row r="37" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="V36" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
@@ -1772,22 +1771,22 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-    </row>
-    <row r="38" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="V37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1801,16 +1800,16 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-    </row>
-    <row r="39" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+      <c r="V38" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1825,16 +1824,16 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="8" t="s">
+      <c r="R39" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="V39" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1849,20 +1848,20 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
+      <c r="Q40" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="R40" s="6"/>
-      <c r="S40" s="8" t="s">
+      <c r="V40" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="T40" s="6"/>
-    </row>
-    <row r="41" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+    </row>
+    <row r="41" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -1877,19 +1876,19 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="8" t="s">
+      <c r="R41" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="V41" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -1904,23 +1903,23 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="8" t="s">
+      <c r="R42" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+      <c r="V42" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B43" s="6"/>
       <c r="C43" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -1934,16 +1933,16 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-    </row>
-    <row r="44" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+      <c r="V43" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -1959,19 +1958,19 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-    </row>
-    <row r="45" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+      <c r="V44" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -1986,21 +1985,21 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-    </row>
-    <row r="46" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+      <c r="V45" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -2011,60 +2010,60 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
+      <c r="Q46" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="R46" s="6"/>
-      <c r="S46" s="8" t="s">
+      <c r="V46" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="T46" s="6"/>
-    </row>
-    <row r="47" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="47" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="E47" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H47" s="6"/>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="8" t="s">
+      <c r="L47" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="M47" s="6"/>
       <c r="N47" s="8" t="s">
         <v>1</v>
       </c>
       <c r="O47" s="6"/>
-      <c r="P47" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-    </row>
-    <row r="48" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+      <c r="V47" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -2075,20 +2074,20 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-    </row>
-    <row r="49" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="V48" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="E49" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -2100,19 +2099,19 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-    </row>
-    <row r="50" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -2127,13 +2126,15 @@
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-    </row>
-    <row r="51" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+      <c r="V50" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="8" t="s">
         <v>69</v>
       </c>
+      <c r="B51" s="6"/>
       <c r="C51" s="8" t="s">
         <v>69</v>
       </c>
@@ -2146,9 +2147,7 @@
         <v>69</v>
       </c>
       <c r="H51" s="6"/>
-      <c r="I51" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -2158,19 +2157,19 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-    </row>
-    <row r="52" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="V51" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="B52" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -2185,19 +2184,19 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-    </row>
-    <row r="53" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="V52" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -2212,13 +2211,13 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-    </row>
-    <row r="54" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="V53" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -2231,19 +2230,19 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
+      <c r="O54" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="P54" s="6"/>
-      <c r="Q54" s="8" t="s">
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="V54" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-    </row>
-    <row r="55" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="55" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -2252,59 +2251,59 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="K55" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="L55" s="6"/>
-      <c r="M55" s="8" t="s">
+      <c r="M55" s="6"/>
+      <c r="N55" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N55" s="6"/>
       <c r="O55" s="6"/>
       <c r="P55" s="8" t="s">
         <v>0</v>
       </c>
       <c r="Q55" s="6"/>
-      <c r="R55" s="8" t="s">
+      <c r="R55" s="6"/>
+      <c r="V55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-    </row>
-    <row r="56" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
+    </row>
+    <row r="56" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="G56" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="H56" s="6"/>
-      <c r="I56" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+      <c r="L56" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="M56" s="6"/>
-      <c r="N56" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="N56" s="6"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-    </row>
-    <row r="57" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="V56" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -2319,26 +2318,26 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="8" t="s">
+      <c r="R57" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+      <c r="V57" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="B58" s="6"/>
       <c r="C58" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F58" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -2351,16 +2350,16 @@
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-    </row>
-    <row r="59" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+      <c r="V58" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -2376,24 +2375,24 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-    </row>
-    <row r="60" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="V59" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="8" t="s">
         <v>84</v>
       </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="G60" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H60" s="6"/>
-      <c r="I60" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
@@ -2403,22 +2402,22 @@
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-    </row>
-    <row r="61" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+      <c r="V60" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="8" t="s">
+      <c r="E61" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G61" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -2430,20 +2429,20 @@
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-    </row>
-    <row r="62" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="V61" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="8"/>
       <c r="C62" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -2457,16 +2456,16 @@
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-    </row>
-    <row r="63" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+      <c r="V62" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -2482,24 +2481,24 @@
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-    </row>
-    <row r="64" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+      <c r="V63" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -2509,8 +2508,6 @@
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
